--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H2">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I2">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J2">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>2890.182625420539</v>
+        <v>3086.815927941086</v>
       </c>
       <c r="R2">
-        <v>26011.64362878486</v>
+        <v>27781.34335146977</v>
       </c>
       <c r="S2">
-        <v>0.02184657628528388</v>
+        <v>0.02512035019736454</v>
       </c>
       <c r="T2">
-        <v>0.02184657628528388</v>
+        <v>0.02512035019736454</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H3">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I3">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J3">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>3177.653164835514</v>
+        <v>3576.190444429433</v>
       </c>
       <c r="R3">
-        <v>28598.87848351963</v>
+        <v>32185.7139998649</v>
       </c>
       <c r="S3">
-        <v>0.02401953484294151</v>
+        <v>0.02910285499156939</v>
       </c>
       <c r="T3">
-        <v>0.0240195348429415</v>
+        <v>0.02910285499156939</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H4">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I4">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J4">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>1761.316633098731</v>
+        <v>2714.480670059282</v>
       </c>
       <c r="R4">
-        <v>15851.84969788858</v>
+        <v>24430.32603053354</v>
       </c>
       <c r="S4">
-        <v>0.01331360096386017</v>
+        <v>0.02209030490565985</v>
       </c>
       <c r="T4">
-        <v>0.01331360096386016</v>
+        <v>0.02209030490565985</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H5">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I5">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J5">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>1281.799837420962</v>
+        <v>1393.21419777364</v>
       </c>
       <c r="R5">
-        <v>11536.19853678866</v>
+        <v>12538.92777996276</v>
       </c>
       <c r="S5">
-        <v>0.009688985631697558</v>
+        <v>0.01133790590855151</v>
       </c>
       <c r="T5">
-        <v>0.009688985631697556</v>
+        <v>0.01133790590855151</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>365.462677</v>
       </c>
       <c r="I6">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J6">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>18703.04189060647</v>
+        <v>17749.39472892449</v>
       </c>
       <c r="R6">
-        <v>168327.3770154582</v>
+        <v>159744.5525603205</v>
       </c>
       <c r="S6">
-        <v>0.141374260517721</v>
+        <v>0.1444436668043361</v>
       </c>
       <c r="T6">
-        <v>0.141374260517721</v>
+        <v>0.1444436668043361</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>365.462677</v>
       </c>
       <c r="I7">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J7">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>20563.33040445469</v>
@@ -883,10 +883,10 @@
         <v>185069.9736400922</v>
       </c>
       <c r="S7">
-        <v>0.1554359791693266</v>
+        <v>0.1673433314595345</v>
       </c>
       <c r="T7">
-        <v>0.1554359791693266</v>
+        <v>0.1673433314595345</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>365.462677</v>
       </c>
       <c r="I8">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J8">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>11397.88831395187</v>
+        <v>15608.44249273202</v>
       </c>
       <c r="R8">
-        <v>102580.9948255669</v>
+        <v>140475.9824345881</v>
       </c>
       <c r="S8">
-        <v>0.08615539874600955</v>
+        <v>0.1270207069698447</v>
       </c>
       <c r="T8">
-        <v>0.08615539874600953</v>
+        <v>0.1270207069698447</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>365.462677</v>
       </c>
       <c r="I9">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J9">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>8294.823947731857</v>
+        <v>8011.073324582828</v>
       </c>
       <c r="R9">
-        <v>74653.41552958671</v>
+        <v>72099.65992124545</v>
       </c>
       <c r="S9">
-        <v>0.06269967252355063</v>
+        <v>0.06519370512141758</v>
       </c>
       <c r="T9">
-        <v>0.06269967252355062</v>
+        <v>0.06519370512141758</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H10">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I10">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J10">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>6912.900347715939</v>
+        <v>5421.11417291511</v>
       </c>
       <c r="R10">
-        <v>62216.10312944346</v>
+        <v>48790.027556236</v>
       </c>
       <c r="S10">
-        <v>0.05225386225445422</v>
+        <v>0.04411674996583176</v>
       </c>
       <c r="T10">
-        <v>0.05225386225445421</v>
+        <v>0.04411674996583177</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H11">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I11">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J11">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>7600.488451803553</v>
+        <v>6280.561314931119</v>
       </c>
       <c r="R11">
-        <v>68404.39606623197</v>
+        <v>56525.05183438008</v>
       </c>
       <c r="S11">
-        <v>0.05745126598828161</v>
+        <v>0.05111088686532825</v>
       </c>
       <c r="T11">
-        <v>0.0574512659882816</v>
+        <v>0.05111088686532826</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H12">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I12">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J12">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>4212.815570301353</v>
+        <v>4767.213198351534</v>
       </c>
       <c r="R12">
-        <v>37915.34013271217</v>
+        <v>42904.91878516381</v>
       </c>
       <c r="S12">
-        <v>0.03184421493746557</v>
+        <v>0.03879533726779915</v>
       </c>
       <c r="T12">
-        <v>0.03184421493746557</v>
+        <v>0.03879533726779916</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H13">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I13">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J13">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>3065.880496226526</v>
+        <v>2446.784456789737</v>
       </c>
       <c r="R13">
-        <v>27592.92446603873</v>
+        <v>22021.06011110764</v>
       </c>
       <c r="S13">
-        <v>0.02317465739128888</v>
+        <v>0.01991180680897396</v>
       </c>
       <c r="T13">
-        <v>0.02317465739128887</v>
+        <v>0.01991180680897396</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H14">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I14">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J14">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>13460.43935114047</v>
+        <v>8959.629655362116</v>
       </c>
       <c r="R14">
-        <v>121143.9541602643</v>
+        <v>80636.66689825903</v>
       </c>
       <c r="S14">
-        <v>0.1017459978243898</v>
+        <v>0.07291300804305186</v>
       </c>
       <c r="T14">
-        <v>0.1017459978243898</v>
+        <v>0.07291300804305186</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H15">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I15">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J15">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>14799.27507972073</v>
+        <v>10380.06240317162</v>
       </c>
       <c r="R15">
-        <v>133193.4757174866</v>
+        <v>93420.56162854456</v>
       </c>
       <c r="S15">
-        <v>0.1118661115572154</v>
+        <v>0.08447241712015199</v>
       </c>
       <c r="T15">
-        <v>0.1118661115572153</v>
+        <v>0.08447241712015199</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H16">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I16">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J16">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>8202.974964092706</v>
+        <v>7878.908907468405</v>
       </c>
       <c r="R16">
-        <v>73826.77467683435</v>
+        <v>70910.18016721564</v>
       </c>
       <c r="S16">
-        <v>0.06200539604076036</v>
+        <v>0.06411815785230673</v>
       </c>
       <c r="T16">
-        <v>0.06200539604076034</v>
+        <v>0.06411815785230673</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H17">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I17">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J17">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>5969.722750442485</v>
+        <v>4043.87029678515</v>
       </c>
       <c r="R17">
-        <v>53727.50475398236</v>
+        <v>36394.83267106635</v>
       </c>
       <c r="S17">
-        <v>0.04512448532575336</v>
+        <v>0.03290880971827818</v>
       </c>
       <c r="T17">
-        <v>0.04512448532575335</v>
+        <v>0.03290880971827818</v>
       </c>
     </row>
   </sheetData>
